--- a/AG_nais_einheiten_unique_v2_mf_korr.xlsx
+++ b/AG_nais_einheiten_unique_v2_mf_korr.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frehnerm\Documents\excel\Aufträge\Sensi CH\Erledigt Abgabe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB1941CE-F10C-417E-90A6-0C350699C02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BAA476-D19F-49AE-BF91-E7FBA282FDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49320" yWindow="-5325" windowWidth="17475" windowHeight="20190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39795" yWindow="8640" windowWidth="33315" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Read me" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$613</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3616" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="918">
   <si>
     <t>STAO_87</t>
   </si>
@@ -2774,7 +2777,7 @@
     <t>7*(8d)</t>
   </si>
   <si>
-    <t>um(11)</t>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -3165,21 +3168,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
-      <selection activeCell="G592" sqref="G592"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>917</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3202,7 +3210,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3225,7 +3233,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -3248,7 +3256,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>80</v>
       </c>
@@ -3271,7 +3279,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>161</v>
       </c>
@@ -3294,7 +3302,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>268</v>
       </c>
@@ -3317,7 +3325,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>370</v>
       </c>
@@ -3340,7 +3348,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>413</v>
       </c>
@@ -3363,7 +3371,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>454</v>
       </c>
@@ -3386,7 +3394,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>499</v>
       </c>
@@ -3409,7 +3417,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>500</v>
       </c>
@@ -3432,7 +3440,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>512</v>
       </c>
@@ -3455,7 +3463,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>657</v>
       </c>
@@ -3478,7 +3486,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>717</v>
       </c>
@@ -3501,7 +3509,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1160</v>
       </c>
@@ -3524,7 +3532,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1249</v>
       </c>
@@ -3547,7 +3555,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1274</v>
       </c>
@@ -3570,7 +3578,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1317</v>
       </c>
@@ -3593,7 +3601,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1758</v>
       </c>
@@ -3616,7 +3624,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>1927</v>
       </c>
@@ -3642,7 +3650,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2082</v>
       </c>
@@ -3665,7 +3673,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3262</v>
       </c>
@@ -3688,7 +3696,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3729</v>
       </c>
@@ -3711,7 +3719,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3736</v>
       </c>
@@ -3734,7 +3742,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3756</v>
       </c>
@@ -3757,7 +3765,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3839</v>
       </c>
@@ -3780,7 +3788,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4007</v>
       </c>
@@ -3803,7 +3811,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>4009</v>
       </c>
@@ -3826,7 +3834,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>4209</v>
       </c>
@@ -3849,7 +3857,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>4243</v>
       </c>
@@ -3872,7 +3880,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>4259</v>
       </c>
@@ -3895,7 +3903,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>4301</v>
       </c>
@@ -3918,7 +3926,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4341</v>
       </c>
@@ -3941,7 +3949,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4377</v>
       </c>
@@ -3964,7 +3972,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4386</v>
       </c>
@@ -3987,7 +3995,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4446</v>
       </c>
@@ -4010,7 +4018,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4562</v>
       </c>
@@ -4033,7 +4041,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>4981</v>
       </c>
@@ -4056,7 +4064,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>5267</v>
       </c>
@@ -4079,7 +4087,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5456</v>
       </c>
@@ -4102,7 +4110,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5646</v>
       </c>
@@ -4125,7 +4133,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>5704</v>
       </c>
@@ -4148,7 +4156,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>6778</v>
       </c>
@@ -4171,7 +4179,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>7162</v>
       </c>
@@ -4194,7 +4202,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>7166</v>
       </c>
@@ -4217,7 +4225,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>7169</v>
       </c>
@@ -4240,7 +4248,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>7183</v>
       </c>
@@ -4263,7 +4271,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>7188</v>
       </c>
@@ -4286,7 +4294,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>7249</v>
       </c>
@@ -4309,7 +4317,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>7274</v>
       </c>
@@ -4332,7 +4340,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>7294</v>
       </c>
@@ -4355,7 +4363,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>7373</v>
       </c>
@@ -4378,7 +4386,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7432</v>
       </c>
@@ -4401,7 +4409,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>7442</v>
       </c>
@@ -4424,7 +4432,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>7494</v>
       </c>
@@ -4447,7 +4455,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>7513</v>
       </c>
@@ -4470,7 +4478,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>7525</v>
       </c>
@@ -4493,7 +4501,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>7532</v>
       </c>
@@ -4516,7 +4524,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>7561</v>
       </c>
@@ -4539,7 +4547,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>7571</v>
       </c>
@@ -4562,7 +4570,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>7625</v>
       </c>
@@ -4585,7 +4593,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>8194</v>
       </c>
@@ -4608,7 +4616,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>8287</v>
       </c>
@@ -4631,7 +4639,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>8307</v>
       </c>
@@ -4654,7 +4662,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>8405</v>
       </c>
@@ -4677,7 +4685,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>8832</v>
       </c>
@@ -4700,7 +4708,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>9063</v>
       </c>
@@ -4723,7 +4731,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>9098</v>
       </c>
@@ -4746,7 +4754,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>9385</v>
       </c>
@@ -4769,7 +4777,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>9461</v>
       </c>
@@ -4792,7 +4800,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>9467</v>
       </c>
@@ -4815,7 +4823,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>9809</v>
       </c>
@@ -4838,7 +4846,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>9833</v>
       </c>
@@ -4861,7 +4869,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>9856</v>
       </c>
@@ -4884,7 +4892,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>9869</v>
       </c>
@@ -4907,7 +4915,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>10039</v>
       </c>
@@ -4930,7 +4938,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>10061</v>
       </c>
@@ -4953,7 +4961,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>10156</v>
       </c>
@@ -4976,7 +4984,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>10209</v>
       </c>
@@ -4999,7 +5007,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>10210</v>
       </c>
@@ -5022,7 +5030,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>10216</v>
       </c>
@@ -5045,7 +5053,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>10370</v>
       </c>
@@ -5068,7 +5076,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>10372</v>
       </c>
@@ -5091,7 +5099,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>10464</v>
       </c>
@@ -5114,7 +5122,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>10824</v>
       </c>
@@ -5137,7 +5145,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>10840</v>
       </c>
@@ -5160,7 +5168,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>10890</v>
       </c>
@@ -5183,7 +5191,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>11388</v>
       </c>
@@ -5206,7 +5214,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>11805</v>
       </c>
@@ -5229,7 +5237,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>11806</v>
       </c>
@@ -5252,7 +5260,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>11977</v>
       </c>
@@ -5275,7 +5283,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>11996</v>
       </c>
@@ -5298,7 +5306,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>12001</v>
       </c>
@@ -5321,7 +5329,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>12017</v>
       </c>
@@ -5344,7 +5352,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>12135</v>
       </c>
@@ -5367,7 +5375,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>12471</v>
       </c>
@@ -5390,7 +5398,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>13062</v>
       </c>
@@ -5413,7 +5421,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>14295</v>
       </c>
@@ -5436,7 +5444,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>14366</v>
       </c>
@@ -5459,7 +5467,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>14372</v>
       </c>
@@ -5482,7 +5490,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>15193</v>
       </c>
@@ -5505,7 +5513,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>15198</v>
       </c>
@@ -5528,7 +5536,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>15236</v>
       </c>
@@ -5551,7 +5559,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>15336</v>
       </c>
@@ -5574,7 +5582,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>15418</v>
       </c>
@@ -5597,7 +5605,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>15438</v>
       </c>
@@ -5620,7 +5628,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>15676</v>
       </c>
@@ -5643,7 +5651,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>15819</v>
       </c>
@@ -5666,7 +5674,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>16531</v>
       </c>
@@ -5689,7 +5697,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>17804</v>
       </c>
@@ -5712,7 +5720,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>17898</v>
       </c>
@@ -5735,7 +5743,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>18211</v>
       </c>
@@ -5758,7 +5766,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>18220</v>
       </c>
@@ -5781,7 +5789,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>18237</v>
       </c>
@@ -5804,7 +5812,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>18284</v>
       </c>
@@ -5827,7 +5835,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>18336</v>
       </c>
@@ -5850,7 +5858,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>18506</v>
       </c>
@@ -5873,7 +5881,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>18511</v>
       </c>
@@ -5896,7 +5904,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>18515</v>
       </c>
@@ -5919,7 +5927,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>18520</v>
       </c>
@@ -5942,7 +5950,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>18855</v>
       </c>
@@ -5965,7 +5973,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>18952</v>
       </c>
@@ -5988,7 +5996,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>19042</v>
       </c>
@@ -6011,7 +6019,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>19051</v>
       </c>
@@ -6034,7 +6042,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>19059</v>
       </c>
@@ -6057,7 +6065,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>19654</v>
       </c>
@@ -6080,7 +6088,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>19661</v>
       </c>
@@ -6103,7 +6111,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>20470</v>
       </c>
@@ -6126,7 +6134,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>20601</v>
       </c>
@@ -6149,7 +6157,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>21023</v>
       </c>
@@ -6172,7 +6180,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>21431</v>
       </c>
@@ -6195,7 +6203,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>22352</v>
       </c>
@@ -6218,7 +6226,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>22361</v>
       </c>
@@ -6241,7 +6249,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>22443</v>
       </c>
@@ -6264,7 +6272,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>22520</v>
       </c>
@@ -6287,7 +6295,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>22691</v>
       </c>
@@ -6310,7 +6318,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>22867</v>
       </c>
@@ -6333,7 +6341,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>23056</v>
       </c>
@@ -6356,7 +6364,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>23403</v>
       </c>
@@ -6379,7 +6387,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>23485</v>
       </c>
@@ -6402,7 +6410,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>23486</v>
       </c>
@@ -6425,7 +6433,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>23491</v>
       </c>
@@ -6448,7 +6456,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>23537</v>
       </c>
@@ -6471,7 +6479,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>23568</v>
       </c>
@@ -6494,7 +6502,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>23576</v>
       </c>
@@ -6517,7 +6525,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>23589</v>
       </c>
@@ -6540,7 +6548,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>23638</v>
       </c>
@@ -6563,7 +6571,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>23657</v>
       </c>
@@ -6586,7 +6594,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>23686</v>
       </c>
@@ -6609,7 +6617,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>23689</v>
       </c>
@@ -6632,7 +6640,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>23907</v>
       </c>
@@ -6655,7 +6663,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>23935</v>
       </c>
@@ -6678,7 +6686,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>24571</v>
       </c>
@@ -6701,7 +6709,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>24577</v>
       </c>
@@ -6724,7 +6732,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>24589</v>
       </c>
@@ -6747,7 +6755,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>24607</v>
       </c>
@@ -6770,7 +6778,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>24627</v>
       </c>
@@ -6793,7 +6801,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>24648</v>
       </c>
@@ -6816,7 +6824,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>24658</v>
       </c>
@@ -6839,7 +6847,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>24663</v>
       </c>
@@ -6862,7 +6870,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>24664</v>
       </c>
@@ -6885,7 +6893,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>24667</v>
       </c>
@@ -6908,7 +6916,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>24728</v>
       </c>
@@ -6931,7 +6939,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>24784</v>
       </c>
@@ -6954,7 +6962,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>24787</v>
       </c>
@@ -6977,7 +6985,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>24820</v>
       </c>
@@ -7000,7 +7008,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>24845</v>
       </c>
@@ -7023,7 +7031,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>25043</v>
       </c>
@@ -7046,7 +7054,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>25206</v>
       </c>
@@ -7069,7 +7077,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>25414</v>
       </c>
@@ -7092,7 +7100,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>25421</v>
       </c>
@@ -7115,7 +7123,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>25425</v>
       </c>
@@ -7138,7 +7146,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>25454</v>
       </c>
@@ -7161,7 +7169,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>25455</v>
       </c>
@@ -7184,7 +7192,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>25483</v>
       </c>
@@ -7207,7 +7215,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>25487</v>
       </c>
@@ -7230,7 +7238,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>25521</v>
       </c>
@@ -7253,7 +7261,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>25534</v>
       </c>
@@ -7276,7 +7284,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>25635</v>
       </c>
@@ -7299,7 +7307,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>25682</v>
       </c>
@@ -7322,7 +7330,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>26107</v>
       </c>
@@ -7345,7 +7353,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>26221</v>
       </c>
@@ -7368,7 +7376,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>26337</v>
       </c>
@@ -7391,7 +7399,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>26493</v>
       </c>
@@ -7414,7 +7422,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>26497</v>
       </c>
@@ -7437,7 +7445,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>26640</v>
       </c>
@@ -7460,7 +7468,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>26998</v>
       </c>
@@ -7483,7 +7491,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>27013</v>
       </c>
@@ -7506,7 +7514,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>27034</v>
       </c>
@@ -7529,7 +7537,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>27061</v>
       </c>
@@ -7552,7 +7560,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>27068</v>
       </c>
@@ -7575,7 +7583,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>27307</v>
       </c>
@@ -7598,7 +7606,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>27373</v>
       </c>
@@ -7621,7 +7629,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>27443</v>
       </c>
@@ -7644,7 +7652,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>27447</v>
       </c>
@@ -7667,7 +7675,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>27768</v>
       </c>
@@ -7690,7 +7698,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>28188</v>
       </c>
@@ -7713,7 +7721,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>28252</v>
       </c>
@@ -7736,7 +7744,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>28258</v>
       </c>
@@ -7759,7 +7767,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>28293</v>
       </c>
@@ -7782,7 +7790,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>28346</v>
       </c>
@@ -7805,7 +7813,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>28347</v>
       </c>
@@ -7828,7 +7836,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>28348</v>
       </c>
@@ -7851,7 +7859,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>28349</v>
       </c>
@@ -7874,7 +7882,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>28396</v>
       </c>
@@ -7897,7 +7905,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>28421</v>
       </c>
@@ -7920,7 +7928,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>28425</v>
       </c>
@@ -7943,7 +7951,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>28445</v>
       </c>
@@ -7966,7 +7974,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>28568</v>
       </c>
@@ -7989,7 +7997,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>28584</v>
       </c>
@@ -8012,7 +8020,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>28661</v>
       </c>
@@ -8035,7 +8043,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>29521</v>
       </c>
@@ -8058,7 +8066,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>29944</v>
       </c>
@@ -8081,7 +8089,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>30014</v>
       </c>
@@ -8104,7 +8112,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>30694</v>
       </c>
@@ -8127,7 +8135,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>30695</v>
       </c>
@@ -8150,7 +8158,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>30745</v>
       </c>
@@ -8173,7 +8181,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>30849</v>
       </c>
@@ -8196,7 +8204,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>30858</v>
       </c>
@@ -8219,7 +8227,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>30887</v>
       </c>
@@ -8242,7 +8250,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>30898</v>
       </c>
@@ -8265,7 +8273,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>30915</v>
       </c>
@@ -8288,7 +8296,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>31065</v>
       </c>
@@ -8311,7 +8319,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>31183</v>
       </c>
@@ -8334,7 +8342,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>31199</v>
       </c>
@@ -8357,7 +8365,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>31200</v>
       </c>
@@ -8380,7 +8388,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>31351</v>
       </c>
@@ -8403,7 +8411,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>31353</v>
       </c>
@@ -8426,7 +8434,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>31638</v>
       </c>
@@ -8449,7 +8457,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>31685</v>
       </c>
@@ -8472,7 +8480,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>31730</v>
       </c>
@@ -8495,7 +8503,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>31751</v>
       </c>
@@ -8518,7 +8526,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>31755</v>
       </c>
@@ -8541,7 +8549,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>31762</v>
       </c>
@@ -8564,7 +8572,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>31763</v>
       </c>
@@ -8587,7 +8595,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>31798</v>
       </c>
@@ -8610,7 +8618,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>31819</v>
       </c>
@@ -8633,7 +8641,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>31881</v>
       </c>
@@ -8656,7 +8664,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>31979</v>
       </c>
@@ -8679,7 +8687,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>32022</v>
       </c>
@@ -8702,7 +8710,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>32023</v>
       </c>
@@ -8725,7 +8733,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>32206</v>
       </c>
@@ -8748,7 +8756,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>32248</v>
       </c>
@@ -8771,7 +8779,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>32250</v>
       </c>
@@ -8794,7 +8802,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>32251</v>
       </c>
@@ -8817,7 +8825,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>32253</v>
       </c>
@@ -8840,7 +8848,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>32327</v>
       </c>
@@ -8863,7 +8871,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>32370</v>
       </c>
@@ -8886,7 +8894,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>32372</v>
       </c>
@@ -8909,7 +8917,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>32373</v>
       </c>
@@ -8932,7 +8940,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>32375</v>
       </c>
@@ -8955,7 +8963,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>32452</v>
       </c>
@@ -8978,7 +8986,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>32542</v>
       </c>
@@ -9001,7 +9009,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>32580</v>
       </c>
@@ -9024,7 +9032,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>33453</v>
       </c>
@@ -9047,7 +9055,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>33767</v>
       </c>
@@ -9070,7 +9078,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>34094</v>
       </c>
@@ -9093,7 +9101,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>34263</v>
       </c>
@@ -9116,7 +9124,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>34328</v>
       </c>
@@ -9139,7 +9147,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>35294</v>
       </c>
@@ -9162,7 +9170,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>35944</v>
       </c>
@@ -9185,7 +9193,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>36322</v>
       </c>
@@ -9208,7 +9216,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>36325</v>
       </c>
@@ -9231,7 +9239,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>36368</v>
       </c>
@@ -9254,7 +9262,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>36393</v>
       </c>
@@ -9277,7 +9285,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>36416</v>
       </c>
@@ -9300,7 +9308,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>36510</v>
       </c>
@@ -9323,7 +9331,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>36551</v>
       </c>
@@ -9346,7 +9354,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>36677</v>
       </c>
@@ -9369,7 +9377,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>36680</v>
       </c>
@@ -9392,7 +9400,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>36800</v>
       </c>
@@ -9415,7 +9423,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>36895</v>
       </c>
@@ -9438,7 +9446,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>36958</v>
       </c>
@@ -9461,7 +9469,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>37170</v>
       </c>
@@ -9484,7 +9492,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>37199</v>
       </c>
@@ -9507,7 +9515,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>37252</v>
       </c>
@@ -9530,7 +9538,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>37258</v>
       </c>
@@ -9553,7 +9561,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>37265</v>
       </c>
@@ -9576,7 +9584,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>37269</v>
       </c>
@@ -9599,7 +9607,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>37274</v>
       </c>
@@ -9622,7 +9630,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>37279</v>
       </c>
@@ -9645,7 +9653,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>37290</v>
       </c>
@@ -9668,7 +9676,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="283" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
         <v>37320</v>
       </c>
@@ -9688,13 +9696,13 @@
         <v>782</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>917</v>
+        <v>846</v>
       </c>
       <c r="H283" s="6" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>37366</v>
       </c>
@@ -9717,7 +9725,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>37395</v>
       </c>
@@ -9740,7 +9748,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>37447</v>
       </c>
@@ -9763,7 +9771,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>37496</v>
       </c>
@@ -9786,7 +9794,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>37528</v>
       </c>
@@ -9809,7 +9817,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>37530</v>
       </c>
@@ -9832,7 +9840,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>37555</v>
       </c>
@@ -9855,7 +9863,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>37564</v>
       </c>
@@ -9878,7 +9886,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>37567</v>
       </c>
@@ -9901,7 +9909,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>37570</v>
       </c>
@@ -9924,7 +9932,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>37582</v>
       </c>
@@ -9947,7 +9955,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>37601</v>
       </c>
@@ -9970,7 +9978,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>37604</v>
       </c>
@@ -9993,7 +10001,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>37679</v>
       </c>
@@ -10016,7 +10024,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>37701</v>
       </c>
@@ -10039,7 +10047,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>37916</v>
       </c>
@@ -10062,7 +10070,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>37984</v>
       </c>
@@ -10085,7 +10093,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>38007</v>
       </c>
@@ -10108,7 +10116,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>38008</v>
       </c>
@@ -10131,7 +10139,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>38142</v>
       </c>
@@ -10154,7 +10162,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>38282</v>
       </c>
@@ -10177,7 +10185,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>38494</v>
       </c>
@@ -10200,7 +10208,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>38816</v>
       </c>
@@ -10223,7 +10231,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>38842</v>
       </c>
@@ -10246,7 +10254,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>38850</v>
       </c>
@@ -10269,7 +10277,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>38868</v>
       </c>
@@ -10292,7 +10300,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>38919</v>
       </c>
@@ -10315,7 +10323,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>38920</v>
       </c>
@@ -10338,7 +10346,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>38951</v>
       </c>
@@ -10361,7 +10369,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>39023</v>
       </c>
@@ -10384,7 +10392,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>39219</v>
       </c>
@@ -10407,7 +10415,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>39238</v>
       </c>
@@ -10430,7 +10438,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>39253</v>
       </c>
@@ -10453,7 +10461,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>39279</v>
       </c>
@@ -10476,7 +10484,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>39362</v>
       </c>
@@ -10499,7 +10507,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>39511</v>
       </c>
@@ -10522,7 +10530,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>39558</v>
       </c>
@@ -10545,7 +10553,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>39786</v>
       </c>
@@ -10568,7 +10576,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>40281</v>
       </c>
@@ -10591,7 +10599,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>40770</v>
       </c>
@@ -10614,7 +10622,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>40813</v>
       </c>
@@ -10637,7 +10645,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>40849</v>
       </c>
@@ -10660,7 +10668,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>41332</v>
       </c>
@@ -10683,7 +10691,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>41333</v>
       </c>
@@ -10706,7 +10714,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>41341</v>
       </c>
@@ -10729,7 +10737,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>41343</v>
       </c>
@@ -10752,7 +10760,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>41586</v>
       </c>
@@ -10775,7 +10783,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>42064</v>
       </c>
@@ -10798,7 +10806,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>42378</v>
       </c>
@@ -10821,7 +10829,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>42407</v>
       </c>
@@ -10844,7 +10852,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>42518</v>
       </c>
@@ -10867,7 +10875,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>42535</v>
       </c>
@@ -10890,7 +10898,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="336" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
         <v>42629</v>
       </c>
@@ -10916,7 +10924,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>42735</v>
       </c>
@@ -10939,7 +10947,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>42931</v>
       </c>
@@ -10962,7 +10970,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>43249</v>
       </c>
@@ -10985,7 +10993,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>43785</v>
       </c>
@@ -11008,7 +11016,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>43792</v>
       </c>
@@ -11031,7 +11039,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>43796</v>
       </c>
@@ -11054,7 +11062,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>43807</v>
       </c>
@@ -11077,7 +11085,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>43823</v>
       </c>
@@ -11100,7 +11108,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>43872</v>
       </c>
@@ -11123,7 +11131,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>43901</v>
       </c>
@@ -11146,7 +11154,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44058</v>
       </c>
@@ -11169,7 +11177,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44063</v>
       </c>
@@ -11192,7 +11200,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44065</v>
       </c>
@@ -11215,7 +11223,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44077</v>
       </c>
@@ -11238,7 +11246,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44196</v>
       </c>
@@ -11261,7 +11269,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44210</v>
       </c>
@@ -11284,7 +11292,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44670</v>
       </c>
@@ -11307,7 +11315,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44694</v>
       </c>
@@ -11330,7 +11338,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44807</v>
       </c>
@@ -11353,7 +11361,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44862</v>
       </c>
@@ -11376,7 +11384,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44925</v>
       </c>
@@ -11399,7 +11407,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>45022</v>
       </c>
@@ -11422,7 +11430,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>45080</v>
       </c>
@@ -11445,7 +11453,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>45082</v>
       </c>
@@ -11468,7 +11476,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>46365</v>
       </c>
@@ -11491,7 +11499,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>47007</v>
       </c>
@@ -11514,7 +11522,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>47061</v>
       </c>
@@ -11537,7 +11545,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>47066</v>
       </c>
@@ -11560,7 +11568,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>47087</v>
       </c>
@@ -11583,7 +11591,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>47109</v>
       </c>
@@ -11606,7 +11614,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>47123</v>
       </c>
@@ -11629,7 +11637,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>47138</v>
       </c>
@@ -11652,7 +11660,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>47165</v>
       </c>
@@ -11675,7 +11683,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>47166</v>
       </c>
@@ -11698,7 +11706,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>47241</v>
       </c>
@@ -11721,7 +11729,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>47871</v>
       </c>
@@ -11744,7 +11752,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>47939</v>
       </c>
@@ -11767,7 +11775,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>47963</v>
       </c>
@@ -11790,7 +11798,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>48006</v>
       </c>
@@ -11813,7 +11821,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>48034</v>
       </c>
@@ -11836,7 +11844,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>48036</v>
       </c>
@@ -11859,7 +11867,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>48125</v>
       </c>
@@ -11882,7 +11890,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>48161</v>
       </c>
@@ -11905,7 +11913,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>48166</v>
       </c>
@@ -11928,7 +11936,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>48182</v>
       </c>
@@ -11951,7 +11959,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>48232</v>
       </c>
@@ -11974,7 +11982,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>48246</v>
       </c>
@@ -11997,7 +12005,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>48485</v>
       </c>
@@ -12020,7 +12028,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>48598</v>
       </c>
@@ -12043,7 +12051,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>48610</v>
       </c>
@@ -12066,7 +12074,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>48618</v>
       </c>
@@ -12089,7 +12097,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>48637</v>
       </c>
@@ -12112,7 +12120,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>48669</v>
       </c>
@@ -12135,7 +12143,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>48947</v>
       </c>
@@ -12158,7 +12166,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>49016</v>
       </c>
@@ -12181,7 +12189,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>49069</v>
       </c>
@@ -12204,7 +12212,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>49210</v>
       </c>
@@ -12227,7 +12235,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>49213</v>
       </c>
@@ -12250,7 +12258,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>49215</v>
       </c>
@@ -12273,7 +12281,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>49280</v>
       </c>
@@ -12296,7 +12304,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>49455</v>
       </c>
@@ -12319,7 +12327,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>49461</v>
       </c>
@@ -12342,7 +12350,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>49462</v>
       </c>
@@ -12365,7 +12373,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>49647</v>
       </c>
@@ -12388,7 +12396,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>49651</v>
       </c>
@@ -12411,7 +12419,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>49762</v>
       </c>
@@ -12434,7 +12442,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>49765</v>
       </c>
@@ -12457,7 +12465,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>49771</v>
       </c>
@@ -12480,7 +12488,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>49780</v>
       </c>
@@ -12503,7 +12511,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>49789</v>
       </c>
@@ -12526,7 +12534,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>49874</v>
       </c>
@@ -12549,7 +12557,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>49960</v>
       </c>
@@ -12572,7 +12580,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>49969</v>
       </c>
@@ -12595,7 +12603,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>50047</v>
       </c>
@@ -12618,7 +12626,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>50301</v>
       </c>
@@ -12641,7 +12649,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>50326</v>
       </c>
@@ -12664,7 +12672,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>50339</v>
       </c>
@@ -12687,7 +12695,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>50381</v>
       </c>
@@ -12710,7 +12718,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>50623</v>
       </c>
@@ -12733,7 +12741,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>50851</v>
       </c>
@@ -12756,7 +12764,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>50872</v>
       </c>
@@ -12779,7 +12787,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>50949</v>
       </c>
@@ -12802,7 +12810,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>50952</v>
       </c>
@@ -12825,7 +12833,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>50953</v>
       </c>
@@ -12848,7 +12856,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>51033</v>
       </c>
@@ -12871,7 +12879,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>51041</v>
       </c>
@@ -12894,7 +12902,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="423" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
         <v>51086</v>
       </c>
@@ -12920,7 +12928,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>51345</v>
       </c>
@@ -12943,7 +12951,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>51415</v>
       </c>
@@ -12966,7 +12974,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>51580</v>
       </c>
@@ -12989,7 +12997,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>51605</v>
       </c>
@@ -13012,7 +13020,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>51610</v>
       </c>
@@ -13035,7 +13043,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>51653</v>
       </c>
@@ -13058,7 +13066,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>51654</v>
       </c>
@@ -13081,7 +13089,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>51662</v>
       </c>
@@ -13104,7 +13112,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>51700</v>
       </c>
@@ -13127,7 +13135,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>51742</v>
       </c>
@@ -13150,7 +13158,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>51756</v>
       </c>
@@ -13173,7 +13181,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>51804</v>
       </c>
@@ -13196,7 +13204,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>51817</v>
       </c>
@@ -13219,7 +13227,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>51843</v>
       </c>
@@ -13242,7 +13250,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>51913</v>
       </c>
@@ -13265,7 +13273,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>51934</v>
       </c>
@@ -13288,7 +13296,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>51969</v>
       </c>
@@ -13311,7 +13319,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>52015</v>
       </c>
@@ -13334,7 +13342,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>52044</v>
       </c>
@@ -13357,7 +13365,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>52059</v>
       </c>
@@ -13380,7 +13388,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>52137</v>
       </c>
@@ -13403,7 +13411,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>52203</v>
       </c>
@@ -13426,7 +13434,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>52287</v>
       </c>
@@ -13449,7 +13457,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>52335</v>
       </c>
@@ -13472,7 +13480,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>52336</v>
       </c>
@@ -13495,7 +13503,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>52350</v>
       </c>
@@ -13518,7 +13526,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>52363</v>
       </c>
@@ -13541,7 +13549,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>52367</v>
       </c>
@@ -13564,7 +13572,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>52369</v>
       </c>
@@ -13587,7 +13595,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>52409</v>
       </c>
@@ -13610,7 +13618,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>52464</v>
       </c>
@@ -13633,7 +13641,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>52466</v>
       </c>
@@ -13656,7 +13664,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>52472</v>
       </c>
@@ -13679,7 +13687,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>52499</v>
       </c>
@@ -13702,7 +13710,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>52509</v>
       </c>
@@ -13725,7 +13733,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>52511</v>
       </c>
@@ -13748,7 +13756,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>52517</v>
       </c>
@@ -13771,7 +13779,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>52518</v>
       </c>
@@ -13794,7 +13802,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>52520</v>
       </c>
@@ -13817,7 +13825,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>52577</v>
       </c>
@@ -13840,7 +13848,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>52654</v>
       </c>
@@ -13863,7 +13871,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>52696</v>
       </c>
@@ -13886,7 +13894,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>52971</v>
       </c>
@@ -13909,7 +13917,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>53016</v>
       </c>
@@ -13932,7 +13940,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>53031</v>
       </c>
@@ -13955,7 +13963,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>53044</v>
       </c>
@@ -13978,7 +13986,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="470" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
         <v>53134</v>
       </c>
@@ -14004,7 +14012,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>53188</v>
       </c>
@@ -14027,7 +14035,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>53198</v>
       </c>
@@ -14050,7 +14058,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>53205</v>
       </c>
@@ -14073,7 +14081,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>53236</v>
       </c>
@@ -14096,7 +14104,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>53257</v>
       </c>
@@ -14119,7 +14127,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>53259</v>
       </c>
@@ -14142,7 +14150,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>53263</v>
       </c>
@@ -14165,7 +14173,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>53277</v>
       </c>
@@ -14188,7 +14196,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>53301</v>
       </c>
@@ -14211,7 +14219,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>53333</v>
       </c>
@@ -14234,7 +14242,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>53405</v>
       </c>
@@ -14257,7 +14265,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>53414</v>
       </c>
@@ -14280,7 +14288,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>53423</v>
       </c>
@@ -14303,7 +14311,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>53447</v>
       </c>
@@ -14326,7 +14334,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>53610</v>
       </c>
@@ -14349,7 +14357,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>53611</v>
       </c>
@@ -14372,7 +14380,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>53612</v>
       </c>
@@ -14395,7 +14403,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>53615</v>
       </c>
@@ -14418,7 +14426,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>53619</v>
       </c>
@@ -14441,7 +14449,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>53634</v>
       </c>
@@ -14464,7 +14472,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>53639</v>
       </c>
@@ -14487,7 +14495,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>53650</v>
       </c>
@@ -14510,7 +14518,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>53680</v>
       </c>
@@ -14533,7 +14541,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>53692</v>
       </c>
@@ -14556,7 +14564,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>53953</v>
       </c>
@@ -14579,7 +14587,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>53968</v>
       </c>
@@ -14602,7 +14610,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>53998</v>
       </c>
@@ -14625,7 +14633,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>54022</v>
       </c>
@@ -14648,7 +14656,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>54043</v>
       </c>
@@ -14671,7 +14679,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>54085</v>
       </c>
@@ -14694,7 +14702,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>54485</v>
       </c>
@@ -14717,7 +14725,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>54546</v>
       </c>
@@ -14740,7 +14748,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>54548</v>
       </c>
@@ -14763,7 +14771,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>54780</v>
       </c>
@@ -14786,7 +14794,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>54811</v>
       </c>
@@ -14809,7 +14817,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>54825</v>
       </c>
@@ -14832,7 +14840,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>54835</v>
       </c>
@@ -14855,7 +14863,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>54837</v>
       </c>
@@ -14878,7 +14886,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>54838</v>
       </c>
@@ -14901,7 +14909,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>54904</v>
       </c>
@@ -14924,7 +14932,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>54925</v>
       </c>
@@ -14947,7 +14955,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>54954</v>
       </c>
@@ -14970,7 +14978,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>54958</v>
       </c>
@@ -14993,7 +15001,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>54971</v>
       </c>
@@ -15016,7 +15024,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>54981</v>
       </c>
@@ -15039,7 +15047,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>54989</v>
       </c>
@@ -15062,7 +15070,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>55000</v>
       </c>
@@ -15085,7 +15093,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>55003</v>
       </c>
@@ -15108,7 +15116,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>55011</v>
       </c>
@@ -15131,7 +15139,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>55024</v>
       </c>
@@ -15154,7 +15162,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>55025</v>
       </c>
@@ -15177,7 +15185,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>55031</v>
       </c>
@@ -15200,7 +15208,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>55177</v>
       </c>
@@ -15223,7 +15231,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>55255</v>
       </c>
@@ -15246,7 +15254,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>55256</v>
       </c>
@@ -15269,7 +15277,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>55307</v>
       </c>
@@ -15292,7 +15300,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>55318</v>
       </c>
@@ -15315,7 +15323,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>55323</v>
       </c>
@@ -15338,7 +15346,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>55326</v>
       </c>
@@ -15361,7 +15369,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>55331</v>
       </c>
@@ -15384,7 +15392,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>55376</v>
       </c>
@@ -15407,7 +15415,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>55414</v>
       </c>
@@ -15430,7 +15438,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>55425</v>
       </c>
@@ -15453,7 +15461,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>55439</v>
       </c>
@@ -15476,7 +15484,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>55455</v>
       </c>
@@ -15499,7 +15507,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="536" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="5">
         <v>55505</v>
       </c>
@@ -15525,7 +15533,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="537" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="5">
         <v>55512</v>
       </c>
@@ -15551,7 +15559,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>55539</v>
       </c>
@@ -15574,7 +15582,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>55569</v>
       </c>
@@ -15597,7 +15605,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>55618</v>
       </c>
@@ -15620,7 +15628,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>55702</v>
       </c>
@@ -15643,7 +15651,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>55765</v>
       </c>
@@ -15666,7 +15674,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>55768</v>
       </c>
@@ -15689,7 +15697,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>55771</v>
       </c>
@@ -15712,7 +15720,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>55782</v>
       </c>
@@ -15735,7 +15743,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>55784</v>
       </c>
@@ -15758,7 +15766,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>55785</v>
       </c>
@@ -15781,7 +15789,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>55815</v>
       </c>
@@ -15804,7 +15812,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>55863</v>
       </c>
@@ -15827,7 +15835,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>55915</v>
       </c>
@@ -15850,7 +15858,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>55918</v>
       </c>
@@ -15873,7 +15881,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>55939</v>
       </c>
@@ -15896,7 +15904,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>56043</v>
       </c>
@@ -15919,7 +15927,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>56052</v>
       </c>
@@ -15942,7 +15950,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>56064</v>
       </c>
@@ -15965,7 +15973,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>56144</v>
       </c>
@@ -15988,7 +15996,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>56170</v>
       </c>
@@ -16011,7 +16019,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>56180</v>
       </c>
@@ -16034,7 +16042,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>56191</v>
       </c>
@@ -16057,7 +16065,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>56192</v>
       </c>
@@ -16080,7 +16088,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>56198</v>
       </c>
@@ -16103,7 +16111,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>56214</v>
       </c>
@@ -16126,7 +16134,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>56216</v>
       </c>
@@ -16149,7 +16157,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>56242</v>
       </c>
@@ -16172,7 +16180,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>56243</v>
       </c>
@@ -16195,7 +16203,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>56249</v>
       </c>
@@ -16218,7 +16226,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>56252</v>
       </c>
@@ -16241,7 +16249,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>56412</v>
       </c>
@@ -16264,7 +16272,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>56541</v>
       </c>
@@ -16287,7 +16295,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>56600</v>
       </c>
@@ -16310,7 +16318,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>56716</v>
       </c>
@@ -16333,7 +16341,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>56721</v>
       </c>
@@ -16356,7 +16364,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>56722</v>
       </c>
@@ -16379,7 +16387,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>56786</v>
       </c>
@@ -16402,7 +16410,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>56812</v>
       </c>
@@ -16425,7 +16433,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>56860</v>
       </c>
@@ -16448,7 +16456,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>56888</v>
       </c>
@@ -16471,7 +16479,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>56895</v>
       </c>
@@ -16494,7 +16502,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>56912</v>
       </c>
@@ -16517,7 +16525,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>56913</v>
       </c>
@@ -16540,7 +16548,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>56918</v>
       </c>
@@ -16563,7 +16571,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>56987</v>
       </c>
@@ -16586,7 +16594,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>56990</v>
       </c>
@@ -16609,7 +16617,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>57001</v>
       </c>
@@ -16632,7 +16640,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>57006</v>
       </c>
@@ -16655,7 +16663,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>57048</v>
       </c>
@@ -16678,7 +16686,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>57051</v>
       </c>
@@ -16701,7 +16709,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>57056</v>
       </c>
@@ -16724,7 +16732,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>57076</v>
       </c>
@@ -16747,7 +16755,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>57079</v>
       </c>
@@ -16770,7 +16778,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>57086</v>
       </c>
@@ -16793,7 +16801,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="592" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" s="5">
         <v>57097</v>
       </c>
@@ -16819,7 +16827,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>57126</v>
       </c>
@@ -16842,7 +16850,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>57149</v>
       </c>
@@ -16865,7 +16873,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>57163</v>
       </c>
@@ -16888,7 +16896,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>57170</v>
       </c>
@@ -16911,7 +16919,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>57172</v>
       </c>
@@ -16934,7 +16942,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>57178</v>
       </c>
@@ -16957,7 +16965,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>57179</v>
       </c>
@@ -16980,7 +16988,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>57184</v>
       </c>
@@ -17003,7 +17011,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>57232</v>
       </c>
@@ -17026,7 +17034,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>57233</v>
       </c>
@@ -17049,7 +17057,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>57235</v>
       </c>
@@ -17072,7 +17080,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>57241</v>
       </c>
@@ -17095,7 +17103,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>57244</v>
       </c>
@@ -17118,7 +17126,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>57245</v>
       </c>
@@ -17141,7 +17149,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>57247</v>
       </c>
@@ -17164,7 +17172,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>57249</v>
       </c>
@@ -17187,7 +17195,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>57250</v>
       </c>
@@ -17210,7 +17218,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>57254</v>
       </c>
@@ -17233,7 +17241,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>57255</v>
       </c>
@@ -17256,7 +17264,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>57257</v>
       </c>
@@ -17279,7 +17287,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>57258</v>
       </c>
@@ -17303,6 +17311,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H613" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17316,14 +17331,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>795</v>
       </c>
